--- a/annales/2008/Annale2008.xlsx
+++ b/annales/2008/Annale2008.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26310"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26403"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2A9E2DE-F542-49A7-A8F1-E4AD9C0F3376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69671233-668A-47FD-88AA-352F97F62D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27588" yWindow="-2808" windowWidth="26508" windowHeight="12864" xr2:uid="{A720C75B-8795-5148-B070-9B178028DAE4}"/>
+    <workbookView xWindow="-30828" yWindow="-3024" windowWidth="30936" windowHeight="17496" xr2:uid="{A720C75B-8795-5148-B070-9B178028DAE4}"/>
   </bookViews>
   <sheets>
     <sheet name="Consigne" sheetId="6" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="210">
   <si>
     <t>N°</t>
   </si>
@@ -677,6 +677,48 @@
   </si>
   <si>
     <t>Analyse des résultats de la feuille Client</t>
+  </si>
+  <si>
+    <t>Le cabinet COMPTA-CONSEIL gère actuellement à l'aide d'un tableur le relevé des heures effectuées par le personnel du cabinet pour chaque client. Cette application constitue le deuxième dossier qui vous est confié. Le modèle utilisé fonctionne de la manière suivante :
+- un classeur est créé pour chaque client; le nom du fichier correspondant au classeur est le numéro du client
+ces fichiers sont stockés dans un dossier partagé du serveur du cabinet accessible par l'ensemble du personnel 
+- chaque classeur comporte 4 feuilles de calcul
+"la feuille « Client » qui synthétise le détail des tâches effectuées par le personnel du cabinet dans le cadre d'une mission réalisée pour le client c'est là que les données sont saisies et la synthèse calculée la feuille « Personnel » qui contient la table des données du personnel 
+la feuille « Niveau » » qui contient la table des postes appelés également niveaux
+la feuille « Mission » qui contient la table des missions"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Travail à faire </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1. Dans la formule applicable au groupe de cellules C7:C21 présentée dans l'annexe 4 :
+a) Quel le rôle de la fonction ESTVIDE() ?
+Quel le rôle de la fonction ESTNA() ? 
+b) Quelle contrainte doit être respectée dans la fonction RECHERCHEV() pour que la fonction ESTNA() puisse opérer correctement ?
+c) Une erreur s'est glissée dans la rédaction de la formule, qui après une recopie vers le bas, ne
+peut plus fonctionner correctement sur l'ensemble des cellules. Recherchez cette erreur et
+proposez une correction.
+2. Elaborez les formules manquantes en complétant l'annexe A (à rendre avec la copie). 
+3. Est-il possible de réaliser à l'aide d'un tableur un total par membre du personnel du nombre d'heures effectuées et saisies dans les différents fichiers ? 
+4. Quelles sont, selon vous, les limites d'une telle application développée à l'aide d'un tableur ?</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1159,7 +1201,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1196,27 +1238,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1249,21 +1270,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1275,27 +1281,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1304,6 +1289,66 @@
     <xf numFmtId="165" fontId="0" fillId="7" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="7" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="7" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Milliers" xfId="2" builtinId="3"/>
@@ -1321,99 +1366,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>20379</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Image 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BF385D5-D0DE-004A-85E5-7FFA18E74EEB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="304800" y="495300"/>
-          <a:ext cx="7772400" cy="2369879"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>130211</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Image 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0CABE09-5C0F-6947-8D45-5B3791025D4C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="304800" y="3060700"/>
-          <a:ext cx="7772400" cy="3571911"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1713,15 +1665,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5E66015-8D35-234C-A486-079BF35BD2B2}">
-  <dimension ref="A1"/>
+  <dimension ref="B3:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="24.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="109.19921875" customWidth="1"/>
+    <col min="3" max="3" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:2" ht="171.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="43" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" ht="202.8" x14ac:dyDescent="0.3">
+      <c r="B6" s="43" t="s">
+        <v>209</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1755,7 +1723,7 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="22" t="s">
         <v>143</v>
       </c>
       <c r="D2">
@@ -1763,7 +1731,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="22" t="s">
         <v>142</v>
       </c>
       <c r="D3" t="s">
@@ -1821,15 +1789,15 @@
       <c r="L6" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="M6" s="31" t="s">
+      <c r="M6" s="24" t="s">
         <v>202</v>
       </c>
-      <c r="N6" s="31" t="s">
+      <c r="N6" s="24" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="30">
+      <c r="A7" s="23">
         <v>39369</v>
       </c>
       <c r="B7" s="19" t="s">
@@ -1841,13 +1809,13 @@
       <c r="D7" s="19">
         <v>4</v>
       </c>
-      <c r="E7" s="57" t="s">
+      <c r="E7" s="38" t="s">
         <v>86</v>
       </c>
       <c r="F7" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="G7" s="57">
+      <c r="G7" s="38">
         <v>40</v>
       </c>
       <c r="H7" s="19" t="s">
@@ -1862,18 +1830,18 @@
       <c r="K7" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="L7" s="57">
+      <c r="L7" s="38">
         <v>180</v>
       </c>
-      <c r="M7" s="32">
+      <c r="M7" s="25">
         <v>0</v>
       </c>
-      <c r="N7" s="58">
+      <c r="N7" s="39">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="30">
+      <c r="A8" s="23">
         <v>39370</v>
       </c>
       <c r="B8" s="19" t="s">
@@ -1885,13 +1853,13 @@
       <c r="D8" s="19">
         <v>1</v>
       </c>
-      <c r="E8" s="57" t="s">
+      <c r="E8" s="38" t="s">
         <v>83</v>
       </c>
       <c r="F8" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="G8" s="57">
+      <c r="G8" s="38">
         <v>45</v>
       </c>
       <c r="H8" s="19" t="s">
@@ -1906,18 +1874,18 @@
       <c r="K8" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="L8" s="57">
+      <c r="L8" s="38">
         <v>270</v>
       </c>
-      <c r="M8" s="32">
+      <c r="M8" s="25">
         <v>0</v>
       </c>
-      <c r="N8" s="58">
+      <c r="N8" s="39">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="30">
+      <c r="A9" s="23">
         <v>39371</v>
       </c>
       <c r="B9" s="19" t="s">
@@ -1929,13 +1897,13 @@
       <c r="D9" s="19">
         <v>1</v>
       </c>
-      <c r="E9" s="57" t="s">
+      <c r="E9" s="38" t="s">
         <v>83</v>
       </c>
       <c r="F9" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="G9" s="57">
+      <c r="G9" s="38">
         <v>45</v>
       </c>
       <c r="H9" s="19" t="s">
@@ -1950,18 +1918,18 @@
       <c r="K9" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="L9" s="57">
+      <c r="L9" s="38">
         <v>180</v>
       </c>
-      <c r="M9" s="32">
+      <c r="M9" s="25">
         <v>0</v>
       </c>
-      <c r="N9" s="58">
+      <c r="N9" s="39">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="30">
+      <c r="A10" s="23">
         <v>39372</v>
       </c>
       <c r="B10" s="19" t="s">
@@ -1973,13 +1941,13 @@
       <c r="D10" s="19">
         <v>3</v>
       </c>
-      <c r="E10" s="57" t="s">
+      <c r="E10" s="38" t="s">
         <v>85</v>
       </c>
       <c r="F10" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="G10" s="57">
+      <c r="G10" s="38">
         <v>15</v>
       </c>
       <c r="H10" s="19" t="s">
@@ -1994,18 +1962,18 @@
       <c r="K10" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="L10" s="57">
+      <c r="L10" s="38">
         <v>101.25</v>
       </c>
-      <c r="M10" s="32">
+      <c r="M10" s="25">
         <v>0</v>
       </c>
-      <c r="N10" s="58">
+      <c r="N10" s="39">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="30">
+      <c r="A11" s="23">
         <v>39373</v>
       </c>
       <c r="B11" s="19" t="s">
@@ -2017,13 +1985,13 @@
       <c r="D11" s="19">
         <v>3</v>
       </c>
-      <c r="E11" s="57" t="s">
+      <c r="E11" s="38" t="s">
         <v>85</v>
       </c>
       <c r="F11" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="G11" s="57">
+      <c r="G11" s="38">
         <v>15</v>
       </c>
       <c r="H11" s="19" t="s">
@@ -2038,16 +2006,16 @@
       <c r="K11" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="L11" s="57"/>
-      <c r="M11" s="32">
+      <c r="L11" s="38"/>
+      <c r="M11" s="25">
         <v>0</v>
       </c>
-      <c r="N11" s="58">
+      <c r="N11" s="39">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="30">
+      <c r="A12" s="23">
         <v>39374</v>
       </c>
       <c r="B12" s="19" t="s">
@@ -2059,13 +2027,13 @@
       <c r="D12" s="19">
         <v>3</v>
       </c>
-      <c r="E12" s="57" t="s">
+      <c r="E12" s="38" t="s">
         <v>85</v>
       </c>
       <c r="F12" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="G12" s="57">
+      <c r="G12" s="38">
         <v>15</v>
       </c>
       <c r="H12" s="19" t="s">
@@ -2080,18 +2048,18 @@
       <c r="K12" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="L12" s="57">
+      <c r="L12" s="38">
         <v>30</v>
       </c>
-      <c r="M12" s="32">
+      <c r="M12" s="25">
         <v>0</v>
       </c>
-      <c r="N12" s="58">
+      <c r="N12" s="39">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="30">
+      <c r="A13" s="23">
         <v>39376</v>
       </c>
       <c r="B13" s="19" t="s">
@@ -2103,13 +2071,13 @@
       <c r="D13" s="19">
         <v>1</v>
       </c>
-      <c r="E13" s="57" t="s">
+      <c r="E13" s="38" t="s">
         <v>83</v>
       </c>
       <c r="F13" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="G13" s="57">
+      <c r="G13" s="38">
         <v>45</v>
       </c>
       <c r="H13" s="19" t="s">
@@ -2124,18 +2092,18 @@
       <c r="K13" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="L13" s="57">
+      <c r="L13" s="38">
         <v>135</v>
       </c>
-      <c r="M13" s="32">
+      <c r="M13" s="25">
         <v>0</v>
       </c>
-      <c r="N13" s="58">
+      <c r="N13" s="39">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="30">
+      <c r="A14" s="23">
         <v>39376</v>
       </c>
       <c r="B14" s="19" t="s">
@@ -2147,13 +2115,13 @@
       <c r="D14" s="19">
         <v>8</v>
       </c>
-      <c r="E14" s="57" t="s">
+      <c r="E14" s="38" t="s">
         <v>195</v>
       </c>
       <c r="F14" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="G14" s="57">
+      <c r="G14" s="38">
         <v>80</v>
       </c>
       <c r="H14" s="19" t="s">
@@ -2168,18 +2136,18 @@
       <c r="K14" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="L14" s="57">
+      <c r="L14" s="38">
         <v>240</v>
       </c>
-      <c r="M14" s="32">
+      <c r="M14" s="25">
         <v>0</v>
       </c>
-      <c r="N14" s="58">
+      <c r="N14" s="39">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="30">
+      <c r="A15" s="23">
         <v>39376</v>
       </c>
       <c r="B15" s="19" t="s">
@@ -2191,29 +2159,29 @@
       <c r="D15" s="19">
         <v>3</v>
       </c>
-      <c r="E15" s="57" t="s">
+      <c r="E15" s="38" t="s">
         <v>85</v>
       </c>
       <c r="F15" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="G15" s="57">
+      <c r="G15" s="38">
         <v>15</v>
       </c>
       <c r="H15" s="19"/>
       <c r="I15" s="19"/>
       <c r="J15" s="19"/>
       <c r="K15" s="19"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="32">
+      <c r="L15" s="38"/>
+      <c r="M15" s="25">
         <v>4</v>
       </c>
-      <c r="N15" s="58">
+      <c r="N15" s="39">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="30">
+      <c r="A16" s="23">
         <v>39377</v>
       </c>
       <c r="B16" s="19" t="s">
@@ -2225,13 +2193,13 @@
       <c r="D16" s="19">
         <v>9</v>
       </c>
-      <c r="E16" s="57" t="s">
+      <c r="E16" s="38" t="s">
         <v>91</v>
       </c>
       <c r="F16" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="G16" s="57">
+      <c r="G16" s="38">
         <v>80</v>
       </c>
       <c r="H16" s="19" t="s">
@@ -2246,13 +2214,13 @@
       <c r="K16" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="L16" s="57">
+      <c r="L16" s="38">
         <v>160</v>
       </c>
-      <c r="M16" s="32">
+      <c r="M16" s="25">
         <v>0</v>
       </c>
-      <c r="N16" s="58">
+      <c r="N16" s="39">
         <v>0</v>
       </c>
     </row>
@@ -2263,20 +2231,20 @@
       <c r="D17" s="19">
         <v>14</v>
       </c>
-      <c r="E17" s="57" t="s">
+      <c r="E17" s="38" t="s">
         <v>192</v>
       </c>
       <c r="F17" s="19"/>
-      <c r="G17" s="57"/>
+      <c r="G17" s="38"/>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="19"/>
       <c r="K17" s="19"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="32">
+      <c r="L17" s="38"/>
+      <c r="M17" s="25">
         <v>8</v>
       </c>
-      <c r="N17" s="58">
+      <c r="N17" s="39">
         <v>1</v>
       </c>
     </row>
@@ -2285,18 +2253,18 @@
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
-      <c r="E18" s="57"/>
+      <c r="E18" s="38"/>
       <c r="F18" s="19"/>
-      <c r="G18" s="57"/>
+      <c r="G18" s="38"/>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
       <c r="J18" s="19"/>
       <c r="K18" s="19"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="32">
+      <c r="L18" s="38"/>
+      <c r="M18" s="25">
         <v>10</v>
       </c>
-      <c r="N18" s="58">
+      <c r="N18" s="39">
         <v>0</v>
       </c>
     </row>
@@ -2305,18 +2273,18 @@
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
-      <c r="E19" s="57"/>
+      <c r="E19" s="38"/>
       <c r="F19" s="19"/>
-      <c r="G19" s="57"/>
+      <c r="G19" s="38"/>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="19"/>
       <c r="K19" s="19"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="32">
+      <c r="L19" s="38"/>
+      <c r="M19" s="25">
         <v>10</v>
       </c>
-      <c r="N19" s="58">
+      <c r="N19" s="39">
         <v>0</v>
       </c>
     </row>
@@ -2325,18 +2293,18 @@
       <c r="B20" s="19"/>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
-      <c r="E20" s="57"/>
+      <c r="E20" s="38"/>
       <c r="F20" s="19"/>
-      <c r="G20" s="57"/>
+      <c r="G20" s="38"/>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
       <c r="J20" s="19"/>
       <c r="K20" s="19"/>
-      <c r="L20" s="57"/>
-      <c r="M20" s="32">
+      <c r="L20" s="38"/>
+      <c r="M20" s="25">
         <v>10</v>
       </c>
-      <c r="N20" s="58">
+      <c r="N20" s="39">
         <v>0</v>
       </c>
     </row>
@@ -2345,29 +2313,29 @@
       <c r="B21" s="19"/>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
-      <c r="E21" s="57"/>
+      <c r="E21" s="38"/>
       <c r="F21" s="19"/>
-      <c r="G21" s="57"/>
+      <c r="G21" s="38"/>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="19"/>
       <c r="K21" s="19"/>
-      <c r="L21" s="57"/>
-      <c r="M21" s="32">
+      <c r="L21" s="38"/>
+      <c r="M21" s="25">
         <v>10</v>
       </c>
-      <c r="N21" s="58">
+      <c r="N21" s="39">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="31.05" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="1:14" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="44" t="s">
         <v>144</v>
       </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B26" s="11" t="s">
@@ -2390,7 +2358,7 @@
       <c r="C27" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="D27" s="59">
+      <c r="D27" s="40">
         <v>16.75</v>
       </c>
       <c r="E27" s="17">
@@ -2404,7 +2372,7 @@
       <c r="C28" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="D28" s="60">
+      <c r="D28" s="41">
         <v>3</v>
       </c>
       <c r="E28" s="18">
@@ -2418,7 +2386,7 @@
       <c r="C29" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="D29" s="60">
+      <c r="D29" s="41">
         <v>0</v>
       </c>
       <c r="E29" s="18">
@@ -2432,7 +2400,7 @@
       <c r="C30" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="D30" s="60">
+      <c r="D30" s="41">
         <v>4.5</v>
       </c>
       <c r="E30" s="18">
@@ -2446,7 +2414,7 @@
       <c r="C31" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="D31" s="60">
+      <c r="D31" s="41">
         <v>0</v>
       </c>
       <c r="E31" s="18">
@@ -2460,7 +2428,7 @@
       <c r="C32" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="D32" s="60">
+      <c r="D32" s="41">
         <v>13</v>
       </c>
       <c r="E32" s="18">
@@ -2474,7 +2442,7 @@
       <c r="C33" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="D33" s="61">
+      <c r="D33" s="42">
         <v>2</v>
       </c>
       <c r="E33" s="18">
@@ -2514,18 +2482,18 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
@@ -2711,16 +2679,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
@@ -2853,14 +2821,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="47"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="47"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
@@ -3351,7 +3319,7 @@
       <c r="C20" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D20" s="48" t="s">
         <v>55</v>
       </c>
       <c r="E20" s="5" t="s">
@@ -3371,7 +3339,7 @@
       <c r="C21" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D21" s="27"/>
+      <c r="D21" s="49"/>
       <c r="E21" s="5" t="s">
         <v>8</v>
       </c>
@@ -3389,7 +3357,7 @@
       <c r="C22" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="27"/>
+      <c r="D22" s="49"/>
       <c r="E22" s="5" t="s">
         <v>19</v>
       </c>
@@ -3407,7 +3375,7 @@
       <c r="C23" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="28"/>
+      <c r="D23" s="50"/>
       <c r="E23" s="5" t="s">
         <v>19</v>
       </c>
@@ -3459,7 +3427,7 @@
       <c r="C26" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D26" s="26" t="s">
+      <c r="D26" s="48" t="s">
         <v>66</v>
       </c>
       <c r="E26" s="5" t="s">
@@ -3479,7 +3447,7 @@
       <c r="C27" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="27"/>
+      <c r="D27" s="49"/>
       <c r="E27" s="5" t="s">
         <v>8</v>
       </c>
@@ -3497,7 +3465,7 @@
       <c r="C28" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="27"/>
+      <c r="D28" s="49"/>
       <c r="E28" s="5" t="s">
         <v>8</v>
       </c>
@@ -3515,7 +3483,7 @@
       <c r="C29" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D29" s="28"/>
+      <c r="D29" s="50"/>
       <c r="E29" s="5" t="s">
         <v>8</v>
       </c>
@@ -3533,7 +3501,7 @@
       <c r="C30" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D30" s="26" t="s">
+      <c r="D30" s="48" t="s">
         <v>72</v>
       </c>
       <c r="E30" s="5" t="s">
@@ -3553,7 +3521,7 @@
       <c r="C31" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D31" s="27"/>
+      <c r="D31" s="49"/>
       <c r="E31" s="5" t="s">
         <v>8</v>
       </c>
@@ -3571,7 +3539,7 @@
       <c r="C32" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D32" s="28"/>
+      <c r="D32" s="50"/>
       <c r="E32" s="5" t="s">
         <v>8</v>
       </c>
@@ -3589,7 +3557,7 @@
       <c r="C33" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D33" s="26" t="s">
+      <c r="D33" s="48" t="s">
         <v>77</v>
       </c>
       <c r="E33" s="5" t="s">
@@ -3609,7 +3577,7 @@
       <c r="C34" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D34" s="28"/>
+      <c r="D34" s="50"/>
       <c r="E34" s="5" t="s">
         <v>8</v>
       </c>
@@ -3653,89 +3621,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>207</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
     </row>
     <row r="2" spans="1:4" ht="33" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="27" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="46">
+      <c r="A3" s="34">
         <v>1</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="48" t="str">
+      <c r="C3" s="35"/>
+      <c r="D3" s="36" t="str">
         <f>IF(ISBLANK(B6),"",IF(ISNA(VLOOKUP(B6,B26:D32,2,FALSE)),"ERREUR !",VLOOKUP(B6,B26:D32,2,FALSE)))</f>
         <v>ERREUR !</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="39">
+      <c r="A4" s="32">
         <v>2</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="31" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="39">
+      <c r="A5" s="32">
         <v>3</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="38">
+      <c r="C5" s="33"/>
+      <c r="D5" s="31">
         <f>SUM(NBH)</f>
         <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="35">
+      <c r="A6" s="28">
         <v>4</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="37">
+      <c r="C6" s="29"/>
+      <c r="D6" s="30">
         <f>SUM(D26:D32)</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="39">
+      <c r="A7" s="32">
         <v>5</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="38">
+      <c r="C7" s="33"/>
+      <c r="D7" s="31">
         <f>SUM(E26:E32)</f>
         <v>0</v>
       </c>
@@ -3745,6 +3713,7 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3758,180 +3727,180 @@
   <sheetData>
     <row r="2" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="27" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="42">
+      <c r="A4" s="52">
         <v>1</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="52"/>
+      <c r="C4" s="58"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="41"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="53"/>
+      <c r="A5" s="53"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="59"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="41"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="53"/>
+      <c r="A6" s="53"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="59"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="41"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="53"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="59"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="41"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="53"/>
+      <c r="A8" s="53"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="59"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="41"/>
-      <c r="B9" s="51"/>
-      <c r="C9" s="53"/>
+      <c r="A9" s="53"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="59"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="41"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="53"/>
+      <c r="A10" s="53"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="59"/>
     </row>
     <row r="11" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="43"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="54"/>
+      <c r="A11" s="54"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="60"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="42">
+      <c r="A12" s="52">
         <v>2</v>
       </c>
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="56"/>
+      <c r="C12" s="62"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="41"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="53"/>
+      <c r="A13" s="53"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="59"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="41"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="53"/>
+      <c r="A14" s="53"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="59"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="41"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="53"/>
+      <c r="A15" s="53"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="59"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="41"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="53"/>
+      <c r="A16" s="53"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="59"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="41"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="53"/>
+      <c r="A17" s="53"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="59"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="41"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="53"/>
+      <c r="A18" s="53"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="59"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="41"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="53"/>
+      <c r="A19" s="53"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="59"/>
     </row>
     <row r="20" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="43"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="54"/>
+      <c r="A20" s="54"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="60"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="42">
+      <c r="A21" s="52">
         <v>3</v>
       </c>
-      <c r="B21" s="55" t="s">
+      <c r="B21" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="56"/>
+      <c r="C21" s="62"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="41"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="53"/>
+      <c r="A22" s="53"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="59"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="41"/>
-      <c r="B23" s="51"/>
-      <c r="C23" s="53"/>
+      <c r="A23" s="53"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="59"/>
     </row>
     <row r="24" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="43"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="54"/>
+      <c r="A24" s="54"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="60"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="42">
+      <c r="A25" s="52">
         <v>4</v>
       </c>
-      <c r="B25" s="55" t="s">
+      <c r="B25" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="56"/>
+      <c r="C25" s="62"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="41"/>
-      <c r="B26" s="51"/>
-      <c r="C26" s="53"/>
+      <c r="A26" s="53"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="59"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="41"/>
-      <c r="B27" s="51"/>
-      <c r="C27" s="53"/>
+      <c r="A27" s="53"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="59"/>
     </row>
     <row r="28" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="43"/>
-      <c r="B28" s="45"/>
-      <c r="C28" s="54"/>
+      <c r="A28" s="54"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="60"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="42">
+      <c r="A29" s="52">
         <v>5</v>
       </c>
-      <c r="B29" s="55" t="s">
+      <c r="B29" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="56"/>
+      <c r="C29" s="62"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="41"/>
-      <c r="B30" s="51"/>
-      <c r="C30" s="53"/>
+      <c r="A30" s="53"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="59"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="41"/>
-      <c r="B31" s="51"/>
-      <c r="C31" s="53"/>
+      <c r="A31" s="53"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="59"/>
     </row>
     <row r="32" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="43"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="54"/>
+      <c r="A32" s="54"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -3952,5 +3921,6 @@
     <mergeCell ref="C12:C20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>